--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1704676.682547069</v>
+        <v>1798707.475307736</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5703188.825773466</v>
+        <v>6228921.512155703</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>419.9023013107135</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>225.6626132028532</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>25.3684700542034</v>
       </c>
       <c r="D4" t="n">
-        <v>22.56919457453855</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>113.8884490585248</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>67.86063329386792</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.423392126084805</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>218.7270997446235</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108353</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>212.2911951212354</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.264602967362461</v>
       </c>
       <c r="I10" t="n">
-        <v>10.04027365719966</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.5915564896766</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112153</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>8.909245336632033</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022616</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>186.7520388614005</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170486</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>33.28996520190781</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>65.07405371603545</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2713,16 +2715,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>35.75633396116267</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>144.9471505564954</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>94.21878984361635</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>50.30825486907107</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022616</v>
       </c>
       <c r="H40" t="n">
-        <v>35.34780583513515</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>281.6356748826475</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>111.699287520755</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361337</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394287</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>299.9226962976037</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112153</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>126.8355823247564</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>82.14201637551409</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>969.2487943945847</v>
+        <v>550.1887779922017</v>
       </c>
       <c r="C2" t="n">
-        <v>531.106321578008</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>2223.792002549091</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1818.936547960124</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1803.834488579839</v>
+        <v>1384.774472177456</v>
       </c>
       <c r="Y2" t="n">
-        <v>1395.548364879493</v>
+        <v>976.4883484771095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536157</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1568898368406</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.33055796836</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425082</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>966.0648349231828</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>668.6030377373708</v>
+        <v>642.9684901519844</v>
       </c>
       <c r="C5" t="n">
-        <v>230.4605649207941</v>
+        <v>608.8664213758118</v>
       </c>
       <c r="D5" t="n">
-        <v>198.5911841356427</v>
+        <v>576.9970405906604</v>
       </c>
       <c r="E5" t="n">
-        <v>168.8568433343419</v>
+        <v>143.2222957489556</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>119.3952701985673</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>119.3952701985673</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.186649932281</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.186649932281</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="W5" t="n">
-        <v>1922.331195343315</v>
+        <v>1896.696647757928</v>
       </c>
       <c r="X5" t="n">
-        <v>1503.188731922625</v>
+        <v>1477.554184337239</v>
       </c>
       <c r="Y5" t="n">
-        <v>1094.902608222279</v>
+        <v>1069.268060636892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>791.3375607104111</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>791.3375607104111</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>625.4595679119338</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>455.701564162671</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>791.3375607104111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>687.540662806093</v>
       </c>
       <c r="M8" t="n">
-        <v>1954.407975719776</v>
+        <v>687.540662806093</v>
       </c>
       <c r="N8" t="n">
-        <v>1954.407975719776</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1811.354815047762</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4939,22 +4941,22 @@
         <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>741.4772326516127</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>575.5992398531354</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>405.8412361038726</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F10" t="n">
-        <v>229.1341820656288</v>
+        <v>226.3304742981165</v>
       </c>
       <c r="G10" t="n">
-        <v>63.5429070914565</v>
+        <v>60.73919932394418</v>
       </c>
       <c r="H10" t="n">
-        <v>63.5429070914565</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.6733435864214</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C11" t="n">
-        <v>345.6733435864214</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>345.6733435864214</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>345.6733435864214</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>345.6733435864214</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963764</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3810871096955</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>491.3810871096955</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.252755711921</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.030453028938</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.413502962764</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W11" t="n">
-        <v>1559.558048373797</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>1140.415584953108</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>732.1294612527614</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056517</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677764</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677764</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8902486565478</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.454444409171</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>971.6220864656536</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1163.440705184641</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.591825232938</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1114.449352416362</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>678.5395675908062</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>244.7648227491014</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677764</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677764</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677764</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677764</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677764</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677764</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094009</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>1445.254791162024</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>2139.818986914647</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>2686.317772873242</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838882</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2387.177519418193</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1978.891395717846</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723523</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4225290098748</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>80.71547497163104</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.552685307369</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.552685307369</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.552685307369</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -5996,16 +5998,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6066,25 +6068,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1224.761663117513</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.761663117513</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.761663117513</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6233,16 +6235,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>754.2193473420839</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F28" t="n">
         <v>407.7542895545774</v>
@@ -6421,13 +6423,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6886,22 +6888,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,16 +6946,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1003.573296407379</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C37" t="n">
-        <v>831.0115848906036</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D37" t="n">
-        <v>665.1335920921263</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E37" t="n">
-        <v>495.3755883428635</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F37" t="n">
-        <v>318.6685343046197</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G37" t="n">
-        <v>153.0772593304474</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H37" t="n">
-        <v>153.0772593304474</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7156,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>382.0682546095385</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1216.418546567716</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2291.478512820576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2291.478512820576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3417.209496257023</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5099.335221900083</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>303.5569696238763</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677762</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677762</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862318</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M41" t="n">
-        <v>1417.191591333635</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.191591333635</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>2111.755787086258</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838881</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2502.600881895757</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2502.600881895757</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2218.120402216315</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.120402216315</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.120402216315</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677762</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677762</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677762</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677762</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>750.6905954094007</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1445.254791162024</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.5941704463494</v>
+        <v>875.8255515988631</v>
       </c>
       <c r="C43" t="n">
-        <v>817.0324589295743</v>
+        <v>703.263840082088</v>
       </c>
       <c r="D43" t="n">
-        <v>651.154466131097</v>
+        <v>537.3858472836107</v>
       </c>
       <c r="E43" t="n">
-        <v>538.3269029788192</v>
+        <v>367.627843534348</v>
       </c>
       <c r="F43" t="n">
-        <v>361.6198489405754</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="G43" t="n">
-        <v>196.0285739664031</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677762</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2623.74995538205</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2377.870508960506</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X43" t="n">
-        <v>1408.832459851228</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y43" t="n">
-        <v>1181.412789165337</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1049.606604072726</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>746.6543855902975</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>746.6543855902975</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>746.6543855902975</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>1396.102936374607</v>
+        <v>1286.300469346934</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>2443.348304557485</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.7616291466</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.906174557633</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1475.906174557633</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1475.906174557633</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.5941704463494</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>817.0324589295743</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="D46" t="n">
-        <v>651.154466131097</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>481.3964623818343</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>304.6894083435905</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>139.0981333694181</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1408.832459851228</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1181.412789165337</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8061,22 +8063,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>512.4570950335038</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>503.4343826282364</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191123</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>640.5448952297621</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097204</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>313.9028777775457</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097205</v>
+        <v>231.4545770548061</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9240,31 +9242,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>274.84172772886</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,19 +9646,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>363.368344515487</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9714,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>118.392906878933</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9881,16 +9883,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,19 +10594,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.6337518573323</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>13.84524407969366</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M41" t="n">
-        <v>233.5821297690068</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>276.8801716904675</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932202</v>
+        <v>756.3484258820573</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.44501829038205</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>161.9268490649753</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>236.8367164334838</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>124.3589898130755</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>135.0797604404447</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>29.99283294136598</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>69.71657238081426</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>37.46509486400034</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>103.1553467313941</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>119.1712251604295</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>56.36113619101512</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>63.43016517136994</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>133.8383517908072</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>37.38363054573608</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>56.36113619101513</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>535219.294916542</v>
+        <v>527736.3936819416</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>535219.294916542</v>
+        <v>534077.5548935792</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357963.1190481656</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357963.1190481656</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696147</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540831.3244696149</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540831.3244696147</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357963.1190481655</v>
+        <v>540831.3244696147</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357963.1190481656</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123268</v>
@@ -26320,16 +26322,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>278971.3917505661</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>278971.3917505661</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26344,16 +26346,16 @@
         <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="N2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>278971.3917505659</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="P2" t="n">
-        <v>278971.3917505659</v>
+        <v>421486.0673098818</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045622</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340775</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139383.7472389045</v>
+        <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389045</v>
+        <v>146735.164794785</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125587</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125587</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="H4" t="n">
         <v>41122.95192991272</v>
       </c>
-      <c r="H4" t="n">
-        <v>41122.95192991267</v>
-      </c>
       <c r="I4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="J4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41122.95192991272</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125587</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8378.114472380243</v>
+        <v>39737.23405958139</v>
       </c>
       <c r="C6" t="n">
-        <v>215321.5841116646</v>
+        <v>143638.7094145229</v>
       </c>
       <c r="D6" t="n">
-        <v>215321.5841116646</v>
+        <v>203793.988561682</v>
       </c>
       <c r="E6" t="n">
-        <v>198926.048239703</v>
+        <v>120289.767553127</v>
       </c>
       <c r="F6" t="n">
-        <v>209097.0448401592</v>
+        <v>302644.8767741766</v>
       </c>
       <c r="G6" t="n">
-        <v>144585.3998280674</v>
+        <v>302644.8767741767</v>
       </c>
       <c r="H6" t="n">
+        <v>302644.8767741765</v>
+      </c>
+      <c r="I6" t="n">
+        <v>302644.8767741766</v>
+      </c>
+      <c r="J6" t="n">
+        <v>191630.4114291865</v>
+      </c>
+      <c r="K6" t="n">
+        <v>249599.022135404</v>
+      </c>
+      <c r="L6" t="n">
+        <v>293252.5750475545</v>
+      </c>
+      <c r="M6" t="n">
+        <v>150444.7058361892</v>
+      </c>
+      <c r="N6" t="n">
         <v>302644.8767741767</v>
       </c>
-      <c r="I6" t="n">
-        <v>302644.8767741767</v>
-      </c>
-      <c r="J6" t="n">
-        <v>127993.5280564705</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>302644.8767741766</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>302644.8767741766</v>
-      </c>
-      <c r="M6" t="n">
-        <v>294155.7950708359</v>
-      </c>
-      <c r="N6" t="n">
-        <v>302644.8767741766</v>
-      </c>
-      <c r="O6" t="n">
-        <v>209097.044840159</v>
-      </c>
-      <c r="P6" t="n">
-        <v>209097.044840159</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186355</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186343</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186355</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>11.64838566658642</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27436,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>189.2884255836292</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>145.4676243474039</v>
       </c>
       <c r="D4" t="n">
-        <v>141.650018295954</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>309.7003062363596</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>218.378219717348</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>6.418374234409271</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022042</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>44.33888453491784</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>131.2385495991668</v>
       </c>
       <c r="I10" t="n">
-        <v>77.73307607587175</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>512.4570950335038</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>503.4343826282364</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>204.0749767191123</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>640.5448952297621</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097204</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>313.9028777775457</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097205</v>
+        <v>231.4545770548061</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>274.84172772886</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,19 +36366,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>363.368344515487</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>118.392906878933</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,16 +36603,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.6337518573323</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>13.84524407969366</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M41" t="n">
-        <v>233.5821297690068</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>276.8801716904675</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932202</v>
+        <v>756.3484258820573</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1798707.475307736</v>
+        <v>1798182.292938703</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.0725916852</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>46.19026444475082</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>225.6626132028532</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3684700542034</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>115.0853595601555</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -870,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>286.1398096286868</v>
       </c>
       <c r="H5" t="n">
-        <v>67.86063329386792</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>114.3486586083423</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.7270997446235</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1141,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>212.2911951212354</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>403.3026531198958</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>7.264602967362461</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112153</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>60.801187884122</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>129.2606839525076</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1906,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>33.28996520190781</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>65.07405371603545</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>144.9471505564954</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>45.76594660771036</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>212.9450041785558</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284446</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>94.21878984361337</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394287</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112153</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>126.8355823247564</v>
+        <v>32.98066327132946</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1608.104601274648</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.774472177456</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.4883484771095</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.0648349231828</v>
+        <v>238.851455766484</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>238.851455766484</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>238.851455766484</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>238.851455766484</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>238.851455766484</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>238.851455766484</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.091239336891</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>966.0648349231828</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X4" t="n">
-        <v>966.0648349231828</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.0648349231828</v>
+        <v>238.851455766484</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>642.9684901519844</v>
+        <v>1267.076121319345</v>
       </c>
       <c r="C5" t="n">
-        <v>608.8664213758118</v>
+        <v>828.9336485027688</v>
       </c>
       <c r="D5" t="n">
-        <v>576.9970405906604</v>
+        <v>393.0238636772133</v>
       </c>
       <c r="E5" t="n">
-        <v>143.2222957489556</v>
+        <v>363.2895228759126</v>
       </c>
       <c r="F5" t="n">
-        <v>119.3952701985673</v>
+        <v>339.4624973255243</v>
       </c>
       <c r="G5" t="n">
-        <v>119.3952701985673</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947713</v>
+        <v>102.8181913809225</v>
       </c>
       <c r="K5" t="n">
-        <v>557.7649106726459</v>
+        <v>726.9189754257008</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726459</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726459</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726459</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1975.120543515257</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1975.120543515257</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346895</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346895</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.552102346895</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>1896.696647757928</v>
+        <v>2520.804278925289</v>
       </c>
       <c r="X5" t="n">
-        <v>1477.554184337239</v>
+        <v>2101.6618155046</v>
       </c>
       <c r="Y5" t="n">
-        <v>1069.268060636892</v>
+        <v>1693.375691804253</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947713</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947713</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>674.5331706342566</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>791.3375607104111</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>791.3375607104111</v>
+        <v>420.4740241772612</v>
       </c>
       <c r="D7" t="n">
-        <v>625.4595679119338</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="E7" t="n">
-        <v>455.701564162671</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244273</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308785</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179216</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765507</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.27402509892</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>791.3375607104111</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.540662806093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.540662806093</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>687.540662806093</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1348.380717347871</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>2009.22077188965</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2235.558048676956</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2235.558048676956</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2234.742998128393</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X8" t="n">
-        <v>2219.640938748108</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.354815047762</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>403.0375283363603</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>226.3304742981165</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>60.73919932394418</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5050,40 +5050,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423626</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136696</v>
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5129,16 +5129,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>617.7751448769883</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D13" t="n">
-        <v>451.897152078511</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E13" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5284,34 +5284,34 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
@@ -5354,25 +5354,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F16" t="n">
-        <v>105.4320942910045</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5451,37 +5451,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="17">
@@ -5503,64 +5503,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5691,34 +5691,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2663.876401402276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2417.996954980732</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2139.563954233837</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1852.608446104267</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1580.582041690559</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1335.190287023971</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,55 +5740,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5913,49 +5913,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1948.217445618573</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698832</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1062.363260807472</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>554.1655527429566</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.993304878938</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1481.601550212351</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1254.181879526459</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1408.738671568553</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7016,25 +7016,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652942</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5099.335221900083</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987179</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
         <v>4809.322912595856</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7469,16 +7469,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.8255515988631</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>703.263840082088</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>537.3858472836107</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>367.627843534348</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>190.9207894961042</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2623.74995538205</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2377.870508960506</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2099.437508213608</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1812.482000084038</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1540.45559567033</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1295.063841003742</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1067.64417031785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,49 +7651,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1286.300469346934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2443.348304557485</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993932</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C46" t="n">
-        <v>970.9960463903949</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7812,46 +7812,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745701</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
-        <v>512.4570950335038</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>503.4343826282364</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191123</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4545770548061</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,22 +9643,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>363.368344515487</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>168.8387779969848</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9892,7 +9892,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>13.84524407969366</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463116</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>756.3484258820573</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.1599680048217</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>124.3589898130755</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>29.99283294136598</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>197.1718905122113</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>56.36113619101559</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>63.43016517136994</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>37.38363054573608</v>
+        <v>131.2385495991631</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540831.3244696147</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540831.3244696149</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696147</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540831.3244696147</v>
+        <v>540831.3244696148</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>540831.3244696148</v>
+        <v>540831.3244696149</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123268</v>
@@ -26322,16 +26322,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="F2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="G2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098817</v>
+        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26346,16 +26346,16 @@
         <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998259</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877266</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662217</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.164794785</v>
+        <v>146735.1647947852</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="H4" t="n">
         <v>41122.95192991271</v>
       </c>
-      <c r="H4" t="n">
-        <v>41122.95192991272</v>
-      </c>
       <c r="I4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26459,7 +26459,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39737.23405958139</v>
+        <v>39737.23405958125</v>
       </c>
       <c r="C6" t="n">
-        <v>143638.7094145229</v>
+        <v>143638.7094145232</v>
       </c>
       <c r="D6" t="n">
-        <v>203793.988561682</v>
+        <v>203793.9885616816</v>
       </c>
       <c r="E6" t="n">
-        <v>120289.767553127</v>
+        <v>120266.5432137443</v>
       </c>
       <c r="F6" t="n">
-        <v>302644.8767741766</v>
+        <v>302621.6524347941</v>
       </c>
       <c r="G6" t="n">
-        <v>302644.8767741767</v>
+        <v>302621.6524347941</v>
       </c>
       <c r="H6" t="n">
-        <v>302644.8767741765</v>
+        <v>302621.6524347941</v>
       </c>
       <c r="I6" t="n">
-        <v>302644.8767741766</v>
+        <v>302621.652434794</v>
       </c>
       <c r="J6" t="n">
-        <v>191630.4114291865</v>
+        <v>191607.1870898038</v>
       </c>
       <c r="K6" t="n">
-        <v>249599.022135404</v>
+        <v>249575.7977960216</v>
       </c>
       <c r="L6" t="n">
-        <v>293252.5750475545</v>
+        <v>293229.3507081716</v>
       </c>
       <c r="M6" t="n">
-        <v>150444.7058361892</v>
+        <v>150421.4814968063</v>
       </c>
       <c r="N6" t="n">
-        <v>302644.8767741767</v>
+        <v>302621.6524347939</v>
       </c>
       <c r="O6" t="n">
-        <v>302644.8767741766</v>
+        <v>302621.652434794</v>
       </c>
       <c r="P6" t="n">
-        <v>302644.8767741766</v>
+        <v>302621.652434794</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768879</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>387.5707836436601</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27444,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>189.2884255836292</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>145.4676243474039</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.41779300637377</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>111.2440434342819</v>
       </c>
       <c r="H5" t="n">
-        <v>218.378219717348</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27678,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.71176510342779</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.418374234409271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>44.33888453491784</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>11.64838566658665</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>131.2385495991668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30884,7 +30884,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
-        <v>512.4570950335038</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>503.4343826282364</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191123</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>640.5448952297621</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35497,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4545770548061</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512975</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36363,22 +36363,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>363.368344515487</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>168.8387779969848</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36612,7 +36612,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>13.84524407969366</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463116</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>756.3484258820573</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080456</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
